--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>77.9526862125288</v>
+        <v>61.13720810128422</v>
       </c>
       <c r="C2">
-        <v>99.47166090669745</v>
+        <v>95.31067699233704</v>
       </c>
       <c r="D2">
-        <v>99.24119177453829</v>
+        <v>99.33273066436571</v>
       </c>
       <c r="E2">
-        <v>98.80846034315076</v>
+        <v>98.94492273052317</v>
       </c>
       <c r="F2">
-        <v>98.21020378410272</v>
+        <v>98.36697756451264</v>
       </c>
       <c r="G2">
-        <v>97.32144365652768</v>
+        <v>97.4076759688394</v>
       </c>
       <c r="H2">
-        <v>95.97506186401472</v>
+        <v>96.03454094752266</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>59.07724018032604</v>
+        <v>70.26108722209689</v>
       </c>
       <c r="C3">
-        <v>98.89694042050029</v>
+        <v>95.3163587664579</v>
       </c>
       <c r="D3">
-        <v>99.33139211336413</v>
+        <v>99.80924244665123</v>
       </c>
       <c r="E3">
-        <v>98.79337155958335</v>
+        <v>99.04053924570317</v>
       </c>
       <c r="F3">
-        <v>98.29110107313393</v>
+        <v>98.57715559428648</v>
       </c>
       <c r="G3">
-        <v>97.2908811578654</v>
+        <v>97.57300415138546</v>
       </c>
       <c r="H3">
-        <v>95.96701860703898</v>
+        <v>96.08113580816774</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>79.5353921546011</v>
+        <v>82.62678759805662</v>
       </c>
       <c r="C4">
-        <v>99.01466681458619</v>
+        <v>94.9414740935602</v>
       </c>
       <c r="D4">
-        <v>99.07776342438335</v>
+        <v>99.20938114632808</v>
       </c>
       <c r="E4">
-        <v>98.76741645888268</v>
+        <v>98.71189271957832</v>
       </c>
       <c r="F4">
-        <v>98.32022204054627</v>
+        <v>98.41846724632862</v>
       </c>
       <c r="G4">
-        <v>97.32722413668442</v>
+        <v>97.44913118947842</v>
       </c>
       <c r="H4">
-        <v>95.92040041436863</v>
+        <v>96.0110550149187</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>82.61105425472678</v>
+        <v>76.02576500087805</v>
       </c>
       <c r="C5">
-        <v>99.34301683357167</v>
+        <v>94.90069951064287</v>
       </c>
       <c r="D5">
-        <v>99.25454703179871</v>
+        <v>99.27287226637506</v>
       </c>
       <c r="E5">
-        <v>98.75809738419787</v>
+        <v>98.88827420406025</v>
       </c>
       <c r="F5">
-        <v>98.37659172909373</v>
+        <v>98.35810753054093</v>
       </c>
       <c r="G5">
-        <v>97.40270079087099</v>
+        <v>97.38975000588403</v>
       </c>
       <c r="H5">
-        <v>95.99584643633816</v>
+        <v>95.96731985759092</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>69.96617979672264</v>
+        <v>72.55875255079552</v>
       </c>
       <c r="C6">
-        <v>99.52825590633935</v>
+        <v>95.38332739227181</v>
       </c>
       <c r="D6">
-        <v>99.28044571933813</v>
+        <v>99.34559258537894</v>
       </c>
       <c r="E6">
-        <v>98.71216127889819</v>
+        <v>98.8684690848535</v>
       </c>
       <c r="F6">
-        <v>98.14263081106384</v>
+        <v>98.33511628117778</v>
       </c>
       <c r="G6">
-        <v>97.37408362388138</v>
+        <v>97.47987514698821</v>
       </c>
       <c r="H6">
-        <v>95.86779564917126</v>
+        <v>96.01776895712371</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>61.13720810128422</v>
@@ -456,15 +462,18 @@
         <v>98.36697756451264</v>
       </c>
       <c r="G2">
+        <v>97.89462345967142</v>
+      </c>
+      <c r="H2">
         <v>97.4076759688394</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.03454094752266</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>70.26108722209689</v>
@@ -482,15 +491,18 @@
         <v>98.57715559428648</v>
       </c>
       <c r="G3">
+        <v>98.04023545005992</v>
+      </c>
+      <c r="H3">
         <v>97.57300415138546</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>96.08113580816774</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>82.62678759805662</v>
@@ -508,15 +520,18 @@
         <v>98.41846724632862</v>
       </c>
       <c r="G4">
+        <v>97.96153372330222</v>
+      </c>
+      <c r="H4">
         <v>97.44913118947842</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>96.0110550149187</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>76.02576500087805</v>
@@ -534,15 +549,18 @@
         <v>98.35810753054093</v>
       </c>
       <c r="G5">
+        <v>97.90876057513898</v>
+      </c>
+      <c r="H5">
         <v>97.38975000588403</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>95.96731985759092</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>72.55875255079552</v>
@@ -560,9 +578,12 @@
         <v>98.33511628117778</v>
       </c>
       <c r="G6">
+        <v>97.95005638297364</v>
+      </c>
+      <c r="H6">
         <v>97.47987514698821</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>96.01776895712371</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_MCPS.xlsx
@@ -447,28 +447,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>61.13720810128422</v>
+        <v>61.16466974292273</v>
       </c>
       <c r="C2">
-        <v>95.31067699233704</v>
+        <v>95.32095076252179</v>
       </c>
       <c r="D2">
-        <v>99.33273066436571</v>
+        <v>99.33198101278093</v>
       </c>
       <c r="E2">
-        <v>98.94492273052317</v>
+        <v>98.9410739353898</v>
       </c>
       <c r="F2">
-        <v>98.36697756451264</v>
+        <v>98.36641915483548</v>
       </c>
       <c r="G2">
-        <v>97.89462345967142</v>
+        <v>97.84536995593169</v>
       </c>
       <c r="H2">
-        <v>97.4076759688394</v>
+        <v>97.43275980945741</v>
       </c>
       <c r="I2">
-        <v>96.03454094752266</v>
+        <v>96.1103415418012</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -476,28 +476,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>70.26108722209689</v>
+        <v>70.09954864178495</v>
       </c>
       <c r="C3">
-        <v>95.3163587664579</v>
+        <v>95.33643122342397</v>
       </c>
       <c r="D3">
-        <v>99.80924244665123</v>
+        <v>99.80891427234715</v>
       </c>
       <c r="E3">
-        <v>99.04053924570317</v>
+        <v>99.04041014452028</v>
       </c>
       <c r="F3">
-        <v>98.57715559428648</v>
+        <v>98.57670418429653</v>
       </c>
       <c r="G3">
-        <v>98.04023545005992</v>
+        <v>98.08518095971731</v>
       </c>
       <c r="H3">
-        <v>97.57300415138546</v>
+        <v>97.51259823626285</v>
       </c>
       <c r="I3">
-        <v>96.08113580816774</v>
+        <v>96.09440289849485</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -505,28 +505,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>82.62678759805662</v>
+        <v>82.55319384392784</v>
       </c>
       <c r="C4">
-        <v>94.9414740935602</v>
+        <v>94.94129172069931</v>
       </c>
       <c r="D4">
-        <v>99.20938114632808</v>
+        <v>99.20977570786191</v>
       </c>
       <c r="E4">
-        <v>98.71189271957832</v>
+        <v>98.71359991868967</v>
       </c>
       <c r="F4">
-        <v>98.41846724632862</v>
+        <v>98.42050176372155</v>
       </c>
       <c r="G4">
-        <v>97.96153372330222</v>
+        <v>97.93718671144732</v>
       </c>
       <c r="H4">
-        <v>97.44913118947842</v>
+        <v>97.42213464670056</v>
       </c>
       <c r="I4">
-        <v>96.0110550149187</v>
+        <v>96.05625824293379</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -534,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>76.02576500087805</v>
+        <v>75.92609584225865</v>
       </c>
       <c r="C5">
-        <v>94.90069951064287</v>
+        <v>94.90525769058259</v>
       </c>
       <c r="D5">
-        <v>99.27287226637506</v>
+        <v>99.2741154759275</v>
       </c>
       <c r="E5">
-        <v>98.88827420406025</v>
+        <v>98.88837490278451</v>
       </c>
       <c r="F5">
-        <v>98.35810753054093</v>
+        <v>98.35800185041073</v>
       </c>
       <c r="G5">
-        <v>97.90876057513898</v>
+        <v>97.86701923410335</v>
       </c>
       <c r="H5">
-        <v>97.38975000588403</v>
+        <v>97.37982321101978</v>
       </c>
       <c r="I5">
-        <v>95.96731985759092</v>
+        <v>96.07588669457674</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -563,28 +563,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>72.55875255079552</v>
+        <v>72.34624428390028</v>
       </c>
       <c r="C6">
-        <v>95.38332739227181</v>
+        <v>95.39417255371639</v>
       </c>
       <c r="D6">
-        <v>99.34559258537894</v>
+        <v>99.34392425145158</v>
       </c>
       <c r="E6">
-        <v>98.8684690848535</v>
+        <v>98.86957989896591</v>
       </c>
       <c r="F6">
-        <v>98.33511628117778</v>
+        <v>98.33594835176346</v>
       </c>
       <c r="G6">
-        <v>97.95005638297364</v>
+        <v>97.97507394015781</v>
       </c>
       <c r="H6">
-        <v>97.47987514698821</v>
+        <v>97.40352571802525</v>
       </c>
       <c r="I6">
-        <v>96.01776895712371</v>
+        <v>96.02152195018505</v>
       </c>
     </row>
   </sheetData>
